--- a/Practice 1/part1.xlsx
+++ b/Practice 1/part1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Documents\Git\ProjectManagement\Practice1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex1\Documents\GitHub\ProjectManagement\Practice 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DEDA50D-739A-4A74-81C3-CF74971EC516}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B508CD3-EE63-4040-A485-814235BC8214}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{F1003EC3-EF6A-4842-AE7E-E5353BB95F2D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F1003EC3-EF6A-4842-AE7E-E5353BB95F2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Year 1</t>
   </si>
@@ -72,6 +73,21 @@
   </si>
   <si>
     <t>r = 0.1</t>
+  </si>
+  <si>
+    <t>0 = -2400 - (600)/(1+K) + (300)/(1+K)^2 + 300/(1+K)^3 + 3600/(1+K)^4</t>
+  </si>
+  <si>
+    <t>0  = -2400*(1+K)^4 - 600*(1+K)^3 + 300*(1+K)^2 + 300*(1+K) + 3600</t>
+  </si>
+  <si>
+    <t>8 K^4 + 34 K^3 + 53 K^2 + 35 K = 4</t>
+  </si>
+  <si>
+    <t>K≈0.098608</t>
+  </si>
+  <si>
+    <t>IRR≈10%</t>
   </si>
 </sst>
 </file>
@@ -647,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F8DFEF-33C0-4B74-8AFC-21A0AEE9AB52}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,10 +877,34 @@
         <v>13</v>
       </c>
     </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>